--- a/biology/Botanique/Maleae/Maleae.xlsx
+++ b/biology/Botanique/Maleae/Maleae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyreae
 Les Maleae, syn. Pyreae, sont une tribu de plantes à fleurs de la famille des Rosaceae et de la sous-famille des Amygdaloideae, à laquelle appartient des arbres tels que le pommier.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu comprend un certain nombre de plantes portant des fruits commercialement importants tels que les pommes et les poires mais aussi les coings, les nèfles, et d'autres espèces ornementales. Des taxonomies plus anciennes séparaient une partie de ce groupe dans la tribu des Crataegeae[1],[2], dans le groupe Cydonia (un placement provisoire)[2], et certains genres ont été placés dans la famille des Quillajaceae[2].
-La tribu se compose exclusivement d'arbustes et de petits arbres. La plupart ont des fruits d'un type qui n'existe pas chez les autres espèces de la famille des Rosaceae. Toutes ces espèces (à l'exception du genre Vauquelinia avec 15 chromosomes) ont un nombre de base haploïde de chromosomes de 17, au lieu de 7, 8 ou 9 comme chez les autres espèces de Rosaceae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu comprend un certain nombre de plantes portant des fruits commercialement importants tels que les pommes et les poires mais aussi les coings, les nèfles, et d'autres espèces ornementales. Des taxonomies plus anciennes séparaient une partie de ce groupe dans la tribu des Crataegeae dans le groupe Cydonia (un placement provisoire), et certains genres ont été placés dans la famille des Quillajaceae.
+La tribu se compose exclusivement d'arbustes et de petits arbres. La plupart ont des fruits d'un type qui n'existe pas chez les autres espèces de la famille des Rosaceae. Toutes ces espèces (à l'exception du genre Vauquelinia avec 15 chromosomes) ont un nombre de base haploïde de chromosomes de 17, au lieu de 7, 8 ou 9 comme chez les autres espèces de Rosaceae.
 Il existe environ 28 genres pour environ 1100 espèces dans le monde, la plupart de ces espèces se trouvant dans la partie tempérée de l'hémisphère nord.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (8 avril 2024)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (8 avril 2024) :
 sous-tribu des Lindleyinae
 Kageneckia Ruiz &amp; Pav.
 Lindleya Kunth
@@ -623,7 +639,7 @@
 Torminalis Medik.
 sous-tribu incertae sedis
 Vauquelinia Corrêa ex Humb. &amp; Bonpl.
-Une classification traditionnelle des Maleae comprend les genres suivants[1],[2],[5],[6] :
+Une classification traditionnelle des Maleae comprend les genres suivants :
 Amelanchier - Amélanchier
 Aria
 Aronia - Aronia
@@ -640,36 +656,105 @@
 Malus - Pommiers
 Osteomeles
 Peraphyllum
-Phippsiomeles[7]
+Phippsiomeles
 Photinia
-Pourthiaea[7]
+Pourthiaea
 Pseudocydonia
 Pyrus - Poiriers
 Rhaphiolepis
 Sorbus - Sorbiers et Alisiers
-Stranvaesia[7]
+Stranvaesia
 Torminalis
-hybrides intergénériques[8],[9] :
+hybrides intergénériques, :
 ×Amelasorbus
 ×Malosorbus
 ×Sorbaronia
 ×Sorbopyre
 et chimères de greffe :
-+Pyrocydonia - chimère poire-coing[10]
-Genres de la tribu des Crataegeae
-Un traitement taxonomique inclut dans les Maleae les genres suivants, qui étaient auparavant séparés dans la tribu des Crataegeae (ou en tant qu'hybrides intertribaux)[11] :
++Pyrocydonia - chimère poire-coing
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maleae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maleae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres de la tribu des Crataegeae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un traitement taxonomique inclut dans les Maleae les genres suivants, qui étaient auparavant séparés dans la tribu des Crataegeae (ou en tant qu'hybrides intertribaux) :
 Cotoneaster - Cotonéaster
 Crataegus - Aubépine
 Mespilus - Néflier
 Pyracantha - Buisson ardent
-hybrides intergénériques (y compris intertribaux)[8] :
+hybrides intergénériques (y compris intertribaux) :
 ×Crataemespilus
 ×Crataegosorbus
 ×Sorbocotoneaster
 hybride greffé :
-×Crataegomespilus
-Anciens genres de la famille des Quillajaceae
-Les genres suivants étaient auparavant placés dans la tribu des Quillajeae des Rosaceae ou dans la famille des Quillajaceae. Leurs fruits sont des capsules sèches et non des pépins.
+×Crataegomespilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maleae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maleae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciens genres de la famille des Quillajaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les genres suivants étaient auparavant placés dans la tribu des Quillajeae des Rosaceae ou dans la famille des Quillajaceae. Leurs fruits sont des capsules sèches et non des pépins.
 Kageneckia
 Vauquelinia
 Lindleya</t>
